--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243795.5667778323</v>
+        <v>241314.6469523731</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>317.7380715252139</v>
+        <v>85.41900355657503</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104947</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689272</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.740304453176223</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>107.0733734269359</v>
       </c>
       <c r="D13" t="n">
         <v>121.695326431086</v>
@@ -1537,16 +1537,16 @@
         <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184865</v>
@@ -1588,7 +1588,7 @@
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019108</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>57.36820351378049</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.0015790663268</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.6876178001938</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579956</v>
+        <v>14.65678318579936</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104924</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X14" t="n">
-        <v>39.35510073912165</v>
+        <v>342.8109540913424</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.317792068927</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948107</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115012</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>9.166859385899983</v>
       </c>
       <c r="F16" t="n">
-        <v>99.65310568714501</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719016</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443153</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890426</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367014</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649682</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
@@ -1853,13 +1853,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>291.3062527878782</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134331296</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929192</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206857</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.22112280504643</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.7856194870029</v>
       </c>
       <c r="W20" t="n">
         <v>275.345685511694</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878719</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206852</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2321,16 +2321,16 @@
         <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816015</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330928</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860184</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432839</v>
+        <v>77.43656365929057</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948558</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>93.13769105450056</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333699</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419011</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
         <v>230.0675382420299</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D40" t="n">
-        <v>93.13769105450129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>90.95618068285816</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3721,13 +3721,13 @@
         <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>111.769039134917</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>178.984440983383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007098</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115141</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>101.8902586125578</v>
       </c>
       <c r="E46" t="n">
-        <v>92.28848050112445</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1760.599048331048</v>
+        <v>1498.714766761813</v>
       </c>
       <c r="C11" t="n">
-        <v>1760.599048331048</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D11" t="n">
-        <v>1429.525416984022</v>
+        <v>825.8706857340985</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988856</v>
+        <v>739.5888639597803</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589723</v>
+        <v>739.5888639597803</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645004</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299124</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.26741214273</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058883</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2469.820004048493</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2123.546313047137</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1760.599048331048</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5124,7 +5124,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.5250939555589</v>
+        <v>418.3126375609351</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555589</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029468</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802772</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420905</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5209,40 +5209,40 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162335</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547702</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.966681601539</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824302</v>
+        <v>967.1670306535514</v>
       </c>
       <c r="X13" t="n">
-        <v>960.9440951860081</v>
+        <v>766.3695470152577</v>
       </c>
       <c r="Y13" t="n">
-        <v>767.3435833022015</v>
+        <v>572.7690351314512</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.8229678559</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>797.5365442767297</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>739.5888639597795</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>739.5888639597795</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>739.5888639597795</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810644998</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299087</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5306,22 +5306,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.50722039599</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>3242.50722039599</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W14" t="n">
-        <v>2916.9306323856</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2877.178005376386</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660298</v>
+        <v>1498.714766761816</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158132</v>
@@ -5367,40 +5367,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9510275436838</v>
+        <v>480.9510275436872</v>
       </c>
       <c r="C16" t="n">
-        <v>480.9510275436838</v>
+        <v>339.2069118755041</v>
       </c>
       <c r="D16" t="n">
-        <v>358.0264553910717</v>
+        <v>216.2823397228922</v>
       </c>
       <c r="E16" t="n">
-        <v>237.3054290684022</v>
+        <v>207.0228857977407</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6457263541145</v>
+        <v>207.0228857977407</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402574</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.942556361062</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.001878188182</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.982422229851</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058536</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058536</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1976.008292145086</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974333</v>
+        <v>1781.433743974335</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.5229443597</v>
+        <v>1519.522944359703</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413537</v>
+        <v>1292.03052341354</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.8054206363</v>
+        <v>1029.805420636303</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0079369980065</v>
+        <v>829.0079369980093</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4074251141999</v>
+        <v>635.4074251142031</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.904057542003</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1235.280059143049</v>
+        <v>940.9592424104345</v>
       </c>
       <c r="E17" t="n">
-        <v>924.1335067526018</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>293.4684854381767</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,37 +5513,37 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
         <v>2979.732029417716</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158126</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5622,22 +5622,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5695,7 +5695,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1732.031612952115</v>
@@ -5704,19 +5704,19 @@
         <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454044</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084842</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352227</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D20" t="n">
-        <v>941.031318953274</v>
+        <v>941.0313189532728</v>
       </c>
       <c r="E20" t="n">
         <v>629.8847665628258</v>
@@ -5744,46 +5744,46 @@
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3290.028929886902</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.692882478922</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.804105960555</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V20" t="n">
         <v>2723.382918824781</v>
@@ -5792,10 +5792,10 @@
         <v>2445.255963762464</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.431905709182</v>
+        <v>2146.431905709181</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941167</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
         <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018609</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2253.645634821814</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,10 +6020,10 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094445</v>
+        <v>92.38504642094419</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130999</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377528</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.692934657418</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528792</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.946602078283</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634014</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,16 +6166,16 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1855.941435307791</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
         <v>1377.311169453178</v>
@@ -6184,13 +6184,13 @@
         <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259244</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935704</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999708</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
@@ -6224,52 +6224,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>632.2149454738383</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127193</v>
+        <v>1394.992678104633</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977798</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572836</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6321,16 +6321,16 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761697</v>
@@ -6342,10 +6342,10 @@
         <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6385,31 +6385,31 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6467,25 +6467,25 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1184.800837351328</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.332742023252</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2265.111559082034</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,7 +6619,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,49 +6701,49 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6801,25 +6801,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257046</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6871,7 +6871,7 @@
         <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,31 +6920,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6953,10 +6953,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6968,16 +6968,16 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,13 +7020,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650704</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>374.6279184371635</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D37" t="n">
         <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
@@ -7126,19 +7126,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891709</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649969</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953102</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7187,37 +7187,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389144</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848509</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722233</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7360,22 +7360,22 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388407</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953106</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
         <v>3313.986587710109</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909359</v>
+        <v>543.5641013650709</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368723</v>
+        <v>430.6660820368718</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983796</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816216</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1332.251593515703</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.567105309816</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>886.8213698466988</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X43" t="n">
-        <v>706.0290052170189</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.9078606473322</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307337</v>
@@ -7640,40 +7640,40 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650705</v>
+        <v>453.7336441225984</v>
       </c>
       <c r="C46" t="n">
-        <v>473.299353011007</v>
+        <v>383.4688957685348</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725147</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976415</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735745</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>788.1499352728556</v>
       </c>
       <c r="X46" t="n">
-        <v>847.333710764997</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953103</v>
+        <v>536.7106743789948</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430627</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729002</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389597</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333059</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830233</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383983</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586578</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266119</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875972</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372529</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672269</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253587</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677591</v>
+        <v>92.30246558677632</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835973</v>
+        <v>106.8829608359733</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798319</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615454</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564655</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085224</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140775</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530922</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662702</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4994347185303</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>170.7178102063609</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>28.65608477603774</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>343.5485285966293</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>131.2335379367253</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665432</v>
+        <v>187.8883066283064</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.366107310081134e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.27215195992158</v>
+        <v>269.5912199285603</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579959</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.1715291416347</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>33.25330108456556</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>270.3946915197758</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851352</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9558991545848</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>303.455853352221</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.3469566735426</v>
       </c>
       <c r="F16" t="n">
-        <v>18.84779574865986</v>
+        <v>118.5009014358046</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292095</v>
+        <v>62.01200608292073</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>41.67450974811427</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134031</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07135577741038901</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.07135577741297311</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>924733.8243964777</v>
+        <v>924733.8243964779</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1005972.34982343</v>
+        <v>1005972.349823429</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1069381.568180636</v>
+        <v>1069381.568180637</v>
       </c>
     </row>
     <row r="12">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585194</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="D2" t="n">
-        <v>409649.3349029731</v>
+        <v>409649.3349029732</v>
       </c>
       <c r="E2" t="n">
-        <v>364770.0004524873</v>
+        <v>364770.0004524872</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.0004524873</v>
+        <v>364770.0004524876</v>
       </c>
       <c r="G2" t="n">
         <v>397265.4106232686</v>
       </c>
       <c r="H2" t="n">
-        <v>397265.4106232685</v>
+        <v>397265.4106232682</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="J2" t="n">
         <v>410520.8849321411</v>
@@ -26341,19 +26341,19 @@
         <v>410520.8849321414</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.884932141</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="M2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552381</v>
+        <v>59764.55367552319</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>1.76478351932019e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487391</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983379</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179686</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.594253262737766e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487388</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434259</v>
+        <v>435086.1724434262</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866199</v>
+        <v>40634.10590866201</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866198</v>
+        <v>40634.10590866223</v>
       </c>
       <c r="G4" t="n">
         <v>77662.26627010426</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010429</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.6849490592</v>
+        <v>91903.68494905927</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.3530946283</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="K4" t="n">
         <v>91012.35309462834</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462834</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="O4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="P4" t="n">
         <v>92793.84288319405</v>
-      </c>
-      <c r="N4" t="n">
-        <v>92793.84288319405</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92793.84288319407</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92793.84288319403</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81764.79146701811</v>
+        <v>-81769.20504488645</v>
       </c>
       <c r="C6" t="n">
-        <v>-81764.79146701834</v>
+        <v>-81769.20504488633</v>
       </c>
       <c r="D6" t="n">
-        <v>-120350.296647843</v>
+        <v>-120354.6543979884</v>
       </c>
       <c r="E6" t="n">
-        <v>-841672.567984632</v>
+        <v>-841901.322407031</v>
       </c>
       <c r="F6" t="n">
-        <v>247566.4041789988</v>
+        <v>247337.6497566004</v>
       </c>
       <c r="G6" t="n">
-        <v>201504.3919330753</v>
+        <v>201438.1145615311</v>
       </c>
       <c r="H6" t="n">
-        <v>239084.5012279495</v>
+        <v>239018.223856405</v>
       </c>
       <c r="I6" t="n">
-        <v>210059.2038514068</v>
+        <v>210059.2038514065</v>
       </c>
       <c r="J6" t="n">
         <v>204721.1571409098</v>
       </c>
       <c r="K6" t="n">
-        <v>230130.590162707</v>
+        <v>230130.5901627067</v>
       </c>
       <c r="L6" t="n">
-        <v>192550.4808678324</v>
+        <v>192550.4808678332</v>
       </c>
       <c r="M6" t="n">
-        <v>33040.34474997353</v>
+        <v>33040.34474997362</v>
       </c>
       <c r="N6" t="n">
+        <v>235208.4447426976</v>
+      </c>
+      <c r="O6" t="n">
+        <v>235208.4447426976</v>
+      </c>
+      <c r="P6" t="n">
         <v>235208.4447426978</v>
-      </c>
-      <c r="O6" t="n">
-        <v>235208.4447426979</v>
-      </c>
-      <c r="P6" t="n">
-        <v>235208.4447426976</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790761</v>
+        <v>69.78465283790689</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26805,10 +26805,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.205979399150237e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.992816578422207e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859235</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951232</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790761</v>
+        <v>69.78465283790689</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758428</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.205979399150237e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.992816578422207e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780172</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672097</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987501</v>
+        <v>90.83829126987511</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519069</v>
+        <v>84.46220888519078</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990081</v>
+        <v>7.649035050990234</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317034</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.9201465871266</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4955890107554</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075622</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49558901075594</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075665</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075677</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075704</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>55.47778196371179</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,13 +30192,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810491</v>
+        <v>55.47778196371175</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30207,10 +30207,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D40" t="n">
-        <v>55.47778196371107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371101</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>55.4777819637108</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.72521440565416</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565451</v>
       </c>
       <c r="E46" t="n">
-        <v>54.14548214544472</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413369</v>
+        <v>0.280541317941334</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366718</v>
+        <v>2.873093772366688</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599334</v>
+        <v>10.81556915993329</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362357</v>
+        <v>23.81059368362332</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208037</v>
+        <v>35.68590767208</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102757</v>
+        <v>44.27152403102711</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396681</v>
+        <v>49.2606006939663</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356764</v>
+        <v>50.05768871356712</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328847</v>
+        <v>47.26805598328798</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661171</v>
+        <v>40.34219219661129</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783757</v>
+        <v>30.29530624783726</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313252</v>
+        <v>17.62255356313234</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588222</v>
+        <v>6.392835282588155</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288203</v>
+        <v>1.22806961928819</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530695</v>
+        <v>0.02244330543530672</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796503</v>
+        <v>0.1501028381796488</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840307</v>
+        <v>1.449677410840293</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694103</v>
+        <v>5.168014384694049</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906951</v>
+        <v>14.18142647906936</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710608</v>
+        <v>24.23831663710583</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264733</v>
+        <v>32.59140791264699</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665965</v>
+        <v>38.03263579665925</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965574</v>
+        <v>39.03924649655699</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847146</v>
+        <v>35.71328360847109</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449832</v>
+        <v>28.66305863449803</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447607</v>
+        <v>19.16049562447587</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768118</v>
+        <v>9.319542882768022</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608854</v>
+        <v>2.788094384608825</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189029</v>
+        <v>0.6050197731890228</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345421</v>
+        <v>0.009875186722345318</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486858</v>
+        <v>0.1258411772486845</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811044</v>
+        <v>1.118842466811032</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078663</v>
+        <v>3.784387403078624</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482089</v>
+        <v>8.896971231481997</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489277</v>
+        <v>14.62045677489262</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477281</v>
+        <v>18.70915102477261</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908263</v>
+        <v>19.72617653908243</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115573</v>
+        <v>19.25713215115553</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875062</v>
+        <v>17.78707839875043</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287742</v>
+        <v>15.21991838287726</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852405</v>
+        <v>10.53748257852394</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381819</v>
+        <v>5.65827693338176</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233915</v>
+        <v>2.193068516233893</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625666</v>
+        <v>0.5376850300625611</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564691</v>
+        <v>0.00686406421356462</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35574,13 +35574,13 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019282</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314462</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806104</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546667</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.877217732237</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250203</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>679.8012701314416</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>569.4797964257327</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>365.8473713314381</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>799.1386429889615</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887893</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637025</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>586.8236523290573</v>
+        <v>858.1401160802252</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>740.1901420412177</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887901</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37321,7 +37321,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193729</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222709</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
